--- a/Epic_material_management.xlsx
+++ b/Epic_material_management.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7F9996-406E-4687-86E5-2381D3AFCE92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、电容、电阻、电感" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>电容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,17 +238,57 @@
   </si>
   <si>
     <t xml:space="preserve">EPIC 物料管理清单/嵌入式设备 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH559L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH559T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1UF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +348,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,15 +377,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -357,17 +403,14 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,14 +418,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,19 +715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="13"/>
+    <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
@@ -685,32 +737,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="2"/>
@@ -718,328 +770,351 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B14:B22"/>
-    <mergeCell ref="H5:H22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:B13"/>
+    <mergeCell ref="H5:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1048,135 +1123,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="13.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>E5-F5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1189,23 +1277,24 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="13"/>
+    <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
@@ -1215,359 +1304,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>E5-F5</f>
         <v>10</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="14" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="14" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1585,103 +1674,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="13.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1696,11 +1785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="1" sqref="A1:H1 F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,84 +1803,74 @@
     <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <f>E5-F5</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
